--- a/supplementary 0.xlsx
+++ b/supplementary 0.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Downloads/wageningen/research records/record/supplementary github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0EC464-24E4-A44B-A103-08BB3190AFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D76B3A-D6DD-B34C-BFF4-8030B8E25CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1820" yWindow="1480" windowWidth="23440" windowHeight="13900" activeTab="2" xr2:uid="{F0399A37-FB5E-4448-8A6C-C4861F244718}"/>
   </bookViews>
   <sheets>
     <sheet name="abbreviation" sheetId="1" r:id="rId1"/>
     <sheet name="explanation" sheetId="2" r:id="rId2"/>
-    <sheet name="measurements charts" sheetId="3" r:id="rId3"/>
+    <sheet name="body measurements visualization" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="125">
   <si>
     <t>MB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,10 @@
   </si>
   <si>
     <t>equation/explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Localization of the 4 anatomical landmarks hook bone left (HBL), hook bone right (HBR), sacrum basis left (SBL), and sacrum basis right (SBR) used to normalize the 3-dimensional surfaces and their coordinates after size standardization.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,55 +781,58 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -949,16 +956,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -981,7 +988,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4203700" y="127000"/>
+          <a:off x="76200" y="0"/>
           <a:ext cx="7251700" cy="5600700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -993,16 +1000,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>732155</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>113665</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>46355</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1031,7 +1038,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12306300" y="228600"/>
+          <a:off x="7493000" y="457200"/>
           <a:ext cx="5761355" cy="3745865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1043,16 +1050,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>131280</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1075,7 +1082,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11772900" y="4267200"/>
+          <a:off x="13538200" y="431800"/>
           <a:ext cx="7772400" cy="5414480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1087,16 +1094,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>171570</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>108070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1119,7 +1126,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1549400" y="6210300"/>
+          <a:off x="25400" y="5740400"/>
           <a:ext cx="7772400" cy="6762870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1131,16 +1138,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1169,8 +1176,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9880600" y="10198100"/>
+          <a:off x="8039100" y="6096000"/>
           <a:ext cx="6426200" cy="8826500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>154070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A162A9E9-D6DE-4DE9-4D84-BACF46EE96DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12801600"/>
+          <a:ext cx="5067300" cy="4421270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1481,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D78485-053C-F948-AA4A-EE4F892296A1}">
   <dimension ref="B2:T57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="141" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="141" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1512,7 +1569,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="17">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -1524,18 +1581,18 @@
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="2:5" ht="17">
-      <c r="B4" s="20"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" ht="17">
-      <c r="B5" s="20"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -1544,8 +1601,8 @@
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="2:5" ht="17">
-      <c r="B6" s="20"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -1554,8 +1611,8 @@
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="2:5" ht="17">
-      <c r="B7" s="20"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -1564,10 +1621,10 @@
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="2:5" ht="17">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -1576,8 +1633,8 @@
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="2:5" ht="17">
-      <c r="B9" s="20"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -1586,8 +1643,8 @@
       <c r="E9" s="13"/>
     </row>
     <row r="10" spans="2:5" ht="17">
-      <c r="B10" s="20"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -1596,8 +1653,8 @@
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="2:5" ht="17">
-      <c r="B11" s="20"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1606,8 +1663,8 @@
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="2:5" ht="17">
-      <c r="B12" s="20"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -1618,8 +1675,8 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17">
-      <c r="B13" s="20"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -1630,8 +1687,8 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="17">
-      <c r="B14" s="20"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="13" t="s">
         <v>48</v>
       </c>
@@ -1640,8 +1697,8 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="17">
-      <c r="B15" s="20"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="13" t="s">
         <v>50</v>
       </c>
@@ -1650,8 +1707,8 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="17">
-      <c r="B16" s="20"/>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -1660,8 +1717,8 @@
       <c r="E16" s="13"/>
     </row>
     <row r="17" spans="2:7" ht="18">
-      <c r="B17" s="20"/>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="20" t="s">
         <v>122</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -1670,8 +1727,8 @@
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:7" ht="34">
-      <c r="B18" s="20"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -1680,39 +1737,39 @@
       <c r="E18" s="13"/>
     </row>
     <row r="19" spans="2:7" ht="17">
-      <c r="B19" s="20"/>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="26"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="2:7" ht="17">
-      <c r="B20" s="20"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="2:7" ht="34">
-      <c r="B21" s="20"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="20" t="s">
         <v>87</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="26"/>
+      <c r="E21" s="23"/>
       <c r="F21"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" ht="34">
-      <c r="B22" s="20"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="13" t="s">
         <v>63</v>
       </c>
@@ -1726,15 +1783,15 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="20"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="2:7" ht="17">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="32" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -1746,7 +1803,7 @@
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="2:7" ht="17">
-      <c r="B25" s="28"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="13" t="s">
         <v>104</v>
       </c>
@@ -1756,18 +1813,18 @@
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="22" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="2:7" ht="17">
-      <c r="B27" s="24"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -1776,8 +1833,8 @@
       <c r="E27" s="13"/>
     </row>
     <row r="28" spans="2:7" ht="17">
-      <c r="B28" s="24"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -1786,8 +1843,8 @@
       <c r="E28" s="13"/>
     </row>
     <row r="29" spans="2:7" ht="17">
-      <c r="B29" s="20"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -1796,8 +1853,8 @@
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="2:7" ht="17">
-      <c r="B30" s="20"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="20" t="s">
         <v>110</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -1806,8 +1863,8 @@
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="2:7" ht="17">
-      <c r="B31" s="20"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="30"/>
+      <c r="C31" s="20" t="s">
         <v>112</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -1816,7 +1873,7 @@
       <c r="E31" s="13"/>
     </row>
     <row r="32" spans="2:7" ht="17">
-      <c r="B32" s="20"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="13" t="s">
         <v>67</v>
       </c>
@@ -1826,8 +1883,8 @@
       <c r="E32" s="13"/>
     </row>
     <row r="33" spans="2:20" ht="17">
-      <c r="B33" s="20"/>
-      <c r="C33" s="22" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -1836,8 +1893,8 @@
       <c r="E33" s="13"/>
     </row>
     <row r="34" spans="2:20" ht="17">
-      <c r="B34" s="20"/>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="20" t="s">
         <v>70</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -1846,8 +1903,8 @@
       <c r="E34" s="13"/>
     </row>
     <row r="35" spans="2:20" ht="17">
-      <c r="B35" s="20"/>
-      <c r="C35" s="22" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="13" t="s">
@@ -1856,7 +1913,7 @@
       <c r="E35" s="13"/>
     </row>
     <row r="36" spans="2:20" ht="17">
-      <c r="B36" s="20"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="14" t="s">
         <v>74</v>
       </c>
@@ -1866,10 +1923,10 @@
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="2:20" ht="17">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="22" t="s">
         <v>79</v>
       </c>
       <c r="D37" s="12" t="s">
@@ -1878,8 +1935,8 @@
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="2:20" ht="34">
-      <c r="B38" s="20"/>
-      <c r="C38" s="22" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="20" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -1888,7 +1945,7 @@
       <c r="E38" s="13"/>
     </row>
     <row r="39" spans="2:20" ht="17">
-      <c r="B39" s="20"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="13" t="s">
         <v>83</v>
       </c>
@@ -1898,18 +1955,18 @@
       <c r="E39" s="13"/>
     </row>
     <row r="40" spans="2:20" ht="17">
-      <c r="B40" s="20"/>
-      <c r="C40" s="29" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="25" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="2:20" ht="17">
-      <c r="B41" s="20"/>
-      <c r="C41" s="23" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="21" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -1918,20 +1975,20 @@
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="2:20">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31" t="s">
+      <c r="C42" s="27"/>
+      <c r="D42" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="31"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" spans="2:20">
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="10" t="s">
@@ -2092,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4535DA22-79D7-7642-921A-83FFC08FCF7B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A4" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2106,18 +2163,18 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="19">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -2128,7 +2185,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="85">
-      <c r="A4" s="33"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="15" t="s">
         <v>116</v>
       </c>
@@ -2137,7 +2194,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="51">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
@@ -2146,7 +2203,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="68">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
@@ -2155,7 +2212,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -2166,7 +2223,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="17">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
@@ -2175,7 +2232,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="34">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
@@ -2184,7 +2241,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="17">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="16" t="s">
         <v>19</v>
       </c>
@@ -2204,14 +2261,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3064405D-E211-824B-8846-A8128217A069}">
-  <dimension ref="A1"/>
+  <dimension ref="A86:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D47" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="86" spans="1:7">
+      <c r="A86" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A86:G89"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/supplementary 0.xlsx
+++ b/supplementary 0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Downloads/wageningen/research records/record/supplementary github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D76B3A-D6DD-B34C-BFF4-8030B8E25CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D10F8E-57F4-0548-8B82-275A91529095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1480" windowWidth="23440" windowHeight="13900" activeTab="2" xr2:uid="{F0399A37-FB5E-4448-8A6C-C4861F244718}"/>
+    <workbookView xWindow="1820" yWindow="1480" windowWidth="23440" windowHeight="13900" activeTab="1" xr2:uid="{F0399A37-FB5E-4448-8A6C-C4861F244718}"/>
   </bookViews>
   <sheets>
     <sheet name="abbreviation" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="127">
   <si>
     <t>MB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,6 +545,14 @@
   </si>
   <si>
     <t>Localization of the 4 anatomical landmarks hook bone left (HBL), hook bone right (HBR), sacrum basis left (SBL), and sacrum basis right (SBR) used to normalize the 3-dimensional surfaces and their coordinates after size standardization.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cow traffic/ Cattle traffic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2149,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4535DA22-79D7-7642-921A-83FFC08FCF7B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2205,7 +2213,7 @@
     <row r="6" spans="1:3" ht="68">
       <c r="A6" s="34"/>
       <c r="B6" s="15" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>11</v>
@@ -2216,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>13</v>
@@ -2263,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3064405D-E211-824B-8846-A8128217A069}">
   <dimension ref="A86:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/supplementary 0.xlsx
+++ b/supplementary 0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Downloads/wageningen/research records/record/supplementary github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D10F8E-57F4-0548-8B82-275A91529095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F46CDB-30EE-1D4C-B952-B78C7DA4A6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1480" windowWidth="23440" windowHeight="13900" activeTab="1" xr2:uid="{F0399A37-FB5E-4448-8A6C-C4861F244718}"/>
+    <workbookView xWindow="-13760" yWindow="-21100" windowWidth="51200" windowHeight="21100" xr2:uid="{F0399A37-FB5E-4448-8A6C-C4861F244718}"/>
   </bookViews>
   <sheets>
     <sheet name="abbreviation" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
   <si>
     <t>MB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
   </si>
   <si>
     <t>a table used to evaluate classifier performance in which each column represents the instances in a predicted class, while each row represents the instances in an actual class.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cow traffic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -88,9 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cow</t>
-  </si>
-  <si>
     <t>A cow is a female bovine who has given birth to a calf.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,50 +389,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>range/ value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explanation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 to 1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>excellent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.7 to 0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6 to 0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">poor </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5 to 0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>filter methods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,23 +449,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The consistent extend of a method relative to another method at approximately the same time is called agreement.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Registration/alignment of point clouds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Registration (aligning process) of two point clouds looks for a mapping between the template point cloud and target point cloud and describes the position of the semantically corresponding points. Registration can be seen as a warping of the template on the target.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A table used to evaluate classifier performance in which each column represents the instances in a predicted class, while each row represents the instances in an actual class.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cow traffic is defined by the time interval between two consecutive cows passing the alley.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1544,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D78485-053C-F948-AA4A-EE4F892296A1}">
-  <dimension ref="B2:T57"/>
+  <dimension ref="B2:T52"/>
   <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="141" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1564,213 +1501,213 @@
   <sheetData>
     <row r="2" spans="2:5" ht="17">
       <c r="B2" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="17">
       <c r="B3" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="2:5" ht="17">
       <c r="B4" s="30"/>
       <c r="C4" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" ht="17">
       <c r="B5" s="30"/>
       <c r="C5" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="2:5" ht="17">
       <c r="B6" s="30"/>
       <c r="C6" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="2:5" ht="17">
       <c r="B7" s="30"/>
       <c r="C7" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="2:5" ht="17">
       <c r="B8" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="2:5" ht="17">
       <c r="B9" s="30"/>
       <c r="C9" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="13"/>
     </row>
     <row r="10" spans="2:5" ht="17">
       <c r="B10" s="30"/>
       <c r="C10" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="2:5" ht="17">
       <c r="B11" s="30"/>
       <c r="C11" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="2:5" ht="17">
       <c r="B12" s="30"/>
       <c r="C12" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="17">
       <c r="B13" s="30"/>
       <c r="C13" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="17">
       <c r="B14" s="30"/>
       <c r="C14" s="20"/>
       <c r="D14" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="17">
       <c r="B15" s="30"/>
       <c r="C15" s="20"/>
       <c r="D15" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="17">
       <c r="B16" s="30"/>
       <c r="C16" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="13"/>
     </row>
     <row r="17" spans="2:7" ht="18">
       <c r="B17" s="30"/>
       <c r="C17" s="20" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:7" ht="34">
       <c r="B18" s="30"/>
       <c r="C18" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" s="13"/>
     </row>
     <row r="19" spans="2:7" ht="17">
       <c r="B19" s="30"/>
       <c r="C19" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="23"/>
     </row>
     <row r="20" spans="2:7" ht="17">
       <c r="B20" s="30"/>
       <c r="C20" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="23"/>
     </row>
     <row r="21" spans="2:7" ht="34">
       <c r="B21" s="30"/>
       <c r="C21" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21"/>
@@ -1779,13 +1716,13 @@
     <row r="22" spans="2:7" ht="34">
       <c r="B22" s="30"/>
       <c r="C22" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1"/>
@@ -1793,36 +1730,36 @@
     <row r="23" spans="2:7">
       <c r="B23" s="30"/>
       <c r="C23" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="2:7" ht="17">
       <c r="B24" s="32" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="2:7" ht="17">
       <c r="B25" s="33"/>
       <c r="C25" s="13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>0</v>
@@ -1833,20 +1770,20 @@
     <row r="27" spans="2:7" ht="17">
       <c r="B27" s="31"/>
       <c r="C27" s="20" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E27" s="13"/>
     </row>
     <row r="28" spans="2:7" ht="17">
       <c r="B28" s="31"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E28" s="13"/>
     </row>
@@ -1856,37 +1793,37 @@
         <v>1</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="2:7" ht="17">
       <c r="B30" s="30"/>
       <c r="C30" s="20" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="2:7" ht="17">
       <c r="B31" s="30"/>
       <c r="C31" s="20" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E31" s="13"/>
     </row>
     <row r="32" spans="2:7" ht="17">
       <c r="B32" s="30"/>
       <c r="C32" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E32" s="13"/>
     </row>
@@ -1896,99 +1833,99 @@
         <v>3</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33" s="13"/>
     </row>
     <row r="34" spans="2:20" ht="17">
       <c r="B34" s="30"/>
       <c r="C34" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34" s="13"/>
     </row>
     <row r="35" spans="2:20" ht="17">
       <c r="B35" s="30"/>
       <c r="C35" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E35" s="13"/>
     </row>
     <row r="36" spans="2:20" ht="17">
       <c r="B36" s="30"/>
       <c r="C36" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="2:20" ht="17">
       <c r="B37" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="2:20" ht="34">
       <c r="B38" s="30"/>
       <c r="C38" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E38" s="13"/>
     </row>
     <row r="39" spans="2:20" ht="17">
       <c r="B39" s="30"/>
       <c r="C39" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E39" s="13"/>
     </row>
     <row r="40" spans="2:20" ht="17">
       <c r="B40" s="30"/>
       <c r="C40" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="2:20" ht="17">
       <c r="B41" s="30"/>
       <c r="C41" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E42" s="27"/>
     </row>
@@ -2000,140 +1937,45 @@
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
     </row>
     <row r="45" spans="2:20">
-      <c r="S45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" ht="36">
-      <c r="S46" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T46" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" ht="24">
-      <c r="S47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="T47" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
     </row>
     <row r="48" spans="2:20">
       <c r="G48" s="9"/>
-      <c r="H48" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="S48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T48" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="7:20">
-      <c r="G49" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" t="s">
-        <v>92</v>
-      </c>
-      <c r="I49" t="s">
-        <v>93</v>
-      </c>
-      <c r="S49" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="T49" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="7:20">
-      <c r="H50" t="s">
-        <v>95</v>
-      </c>
-      <c r="I50" t="s">
-        <v>96</v>
-      </c>
-      <c r="S50" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="T50" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="7:20">
-      <c r="H51" t="s">
-        <v>97</v>
-      </c>
-      <c r="I51" t="s">
-        <v>98</v>
-      </c>
-      <c r="S51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="T51" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="7:20">
-      <c r="H52" t="s">
-        <v>99</v>
-      </c>
-      <c r="I52" t="s">
-        <v>100</v>
-      </c>
-      <c r="S52" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="T52" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="7:20">
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="7:20">
-      <c r="H54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="7:20">
-      <c r="H55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="7:20">
-      <c r="H56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="7:20">
-      <c r="H57">
-        <v>5</v>
-      </c>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="19:20">
+      <c r="S49" s="6"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="19:20">
+      <c r="S50" s="6"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="19:20">
+      <c r="S51" s="6"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="19:20">
+      <c r="S52" s="7"/>
+      <c r="T52" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2157,7 +1999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4535DA22-79D7-7642-921A-83FFC08FCF7B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="125" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2172,7 +2014,7 @@
     </row>
     <row r="2" spans="1:3" ht="19">
       <c r="A2" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>2</v>
@@ -2183,7 +2025,7 @@
     </row>
     <row r="3" spans="1:3" ht="34">
       <c r="A3" s="34" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>5</v>
@@ -2195,7 +2037,7 @@
     <row r="4" spans="1:3" ht="85">
       <c r="A4" s="34"/>
       <c r="B4" s="15" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>7</v>
@@ -2213,48 +2055,48 @@
     <row r="6" spans="1:3" ht="68">
       <c r="A6" s="34"/>
       <c r="B6" s="15" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
       <c r="A7" s="35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17">
       <c r="A8" s="35"/>
       <c r="B8" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34">
       <c r="A9" s="35"/>
       <c r="B9" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17">
       <c r="A10" s="35"/>
       <c r="B10" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2279,7 +2121,7 @@
   <sheetData>
     <row r="86" spans="1:7">
       <c r="A86" s="36" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
